--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.871715666666667</v>
+        <v>2.763564666666667</v>
       </c>
       <c r="H2">
-        <v>23.615147</v>
+        <v>8.290694</v>
       </c>
       <c r="I2">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635561</v>
       </c>
       <c r="J2">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>56.78742795586711</v>
+        <v>0.8019569882435557</v>
       </c>
       <c r="R2">
-        <v>511.086851602804</v>
+        <v>7.217612894192</v>
       </c>
       <c r="S2">
-        <v>0.01299701487579027</v>
+        <v>0.0003398441537010919</v>
       </c>
       <c r="T2">
-        <v>0.01299701487579026</v>
+        <v>0.0003398441537010918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.871715666666667</v>
+        <v>2.763564666666667</v>
       </c>
       <c r="H3">
-        <v>23.615147</v>
+        <v>8.290694</v>
       </c>
       <c r="I3">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635561</v>
       </c>
       <c r="J3">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>55.97065873829378</v>
+        <v>19.64991387000978</v>
       </c>
       <c r="R3">
-        <v>503.735928644644</v>
+        <v>176.849224830088</v>
       </c>
       <c r="S3">
-        <v>0.01281007980841694</v>
+        <v>0.008327015597281296</v>
       </c>
       <c r="T3">
-        <v>0.01281007980841693</v>
+        <v>0.008327015597281294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.871715666666667</v>
+        <v>2.763564666666667</v>
       </c>
       <c r="H4">
-        <v>23.615147</v>
+        <v>8.290694</v>
       </c>
       <c r="I4">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635561</v>
       </c>
       <c r="J4">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>8.354222974075888</v>
+        <v>2.932961047662889</v>
       </c>
       <c r="R4">
-        <v>75.18800676668299</v>
+        <v>26.396649428966</v>
       </c>
       <c r="S4">
-        <v>0.001912042227975479</v>
+        <v>0.001242896663653173</v>
       </c>
       <c r="T4">
-        <v>0.001912042227975478</v>
+        <v>0.001242896663653173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>266.1315866666667</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H5">
-        <v>798.3947600000001</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I5">
-        <v>0.9371448614065047</v>
+        <v>0.9543106517164206</v>
       </c>
       <c r="J5">
-        <v>0.9371448614065045</v>
+        <v>0.9543106517164204</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>1919.902718108925</v>
+        <v>77.22854771374222</v>
       </c>
       <c r="R5">
-        <v>17279.12446298032</v>
+        <v>695.0569294236799</v>
       </c>
       <c r="S5">
-        <v>0.4394107126444312</v>
+        <v>0.0327270300329003</v>
       </c>
       <c r="T5">
-        <v>0.4394107126444312</v>
+        <v>0.0327270300329003</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>266.1315866666667</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H6">
-        <v>798.3947600000001</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I6">
-        <v>0.9371448614065047</v>
+        <v>0.9543106517164206</v>
       </c>
       <c r="J6">
-        <v>0.9371448614065045</v>
+        <v>0.9543106517164204</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>1892.288904676391</v>
@@ -818,10 +818,10 @@
         <v>17030.60014208752</v>
       </c>
       <c r="S6">
-        <v>0.4330907020914114</v>
+        <v>0.8018925338828879</v>
       </c>
       <c r="T6">
-        <v>0.4330907020914113</v>
+        <v>0.8018925338828878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>266.1315866666667</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H7">
-        <v>798.3947600000001</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I7">
-        <v>0.9371448614065047</v>
+        <v>0.9543106517164206</v>
       </c>
       <c r="J7">
-        <v>0.9371448614065045</v>
+        <v>0.9543106517164204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
         <v>282.4444771135155</v>
@@ -880,10 +880,10 @@
         <v>2542.00029402164</v>
       </c>
       <c r="S7">
-        <v>0.06464344667066216</v>
+        <v>0.1196910878006324</v>
       </c>
       <c r="T7">
-        <v>0.06464344667066216</v>
+        <v>0.1196910878006323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>29.933899</v>
       </c>
       <c r="I8">
-        <v>0.03513600168131277</v>
+        <v>0.03577959186894402</v>
       </c>
       <c r="J8">
-        <v>0.03513600168131276</v>
+        <v>0.03577959186894401</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>71.98215335694088</v>
+        <v>2.895499398292444</v>
       </c>
       <c r="R8">
-        <v>647.839380212468</v>
+        <v>26.059494584632</v>
       </c>
       <c r="S8">
-        <v>0.01647465207789744</v>
+        <v>0.001227021594649249</v>
       </c>
       <c r="T8">
-        <v>0.01647465207789743</v>
+        <v>0.001227021594649249</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>29.933899</v>
       </c>
       <c r="I9">
-        <v>0.03513600168131277</v>
+        <v>0.03577959186894402</v>
       </c>
       <c r="J9">
-        <v>0.03513600168131276</v>
+        <v>0.03577959186894401</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
         <v>70.94683957019421</v>
@@ -1004,10 +1004,10 @@
         <v>638.521556131748</v>
       </c>
       <c r="S9">
-        <v>0.01623769842157205</v>
+        <v>0.03006503965294618</v>
       </c>
       <c r="T9">
-        <v>0.01623769842157205</v>
+        <v>0.03006503965294617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>29.933899</v>
       </c>
       <c r="I10">
-        <v>0.03513600168131277</v>
+        <v>0.03577959186894402</v>
       </c>
       <c r="J10">
-        <v>0.03513600168131276</v>
+        <v>0.03577959186894401</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
         <v>10.58957908369011</v>
       </c>
       <c r="R10">
-        <v>95.30621175321099</v>
+        <v>95.306211753211</v>
       </c>
       <c r="S10">
-        <v>0.002423651181843287</v>
+        <v>0.004487530621348594</v>
       </c>
       <c r="T10">
-        <v>0.002423651181843286</v>
+        <v>0.004487530621348592</v>
       </c>
     </row>
   </sheetData>
